--- a/General.Mvc/wwwroot/Files/importfile/订单模板.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/订单模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>订单行号</t>
   </si>
@@ -87,9 +87,6 @@
     <t>2QT</t>
   </si>
   <si>
-    <t>KT</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMS-QQ-A-250/5 </t>
   </si>
   <si>
@@ -115,6 +112,50 @@
   </si>
   <si>
     <t>AMS4049 MRS</t>
+  </si>
+  <si>
+    <t>ARJ201220-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARJ201220-0002</t>
+  </si>
+  <si>
+    <t>ARJ201220-0003</t>
+  </si>
+  <si>
+    <t>ARJ201220-0004</t>
+  </si>
+  <si>
+    <t>ARJ201220-0005</t>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.46m2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.46平方米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝薄板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -123,7 +164,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1437,7 +1478,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="258" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1458,7 +1499,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2041,11 +2082,12 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="15" max="15" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2109,12 +2151,14 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C2" s="6">
         <v>100976</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>19</v>
@@ -2138,9 +2182,11 @@
         <v>1</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="N2" s="8">
         <v>3.64</v>
       </c>
@@ -2150,14 +2196,20 @@
       <c r="P2" s="9">
         <v>44075</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="11"/>
+      <c r="Q2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="27">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C3" s="6">
         <v>102828</v>
       </c>
@@ -2168,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5">
         <v>2.5000000000000001E-2</v>
@@ -2180,15 +2232,17 @@
         <v>144</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="5">
         <v>20</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="N3" s="8">
         <v>4.2300000000000004</v>
       </c>
@@ -2198,14 +2252,20 @@
       <c r="P3" s="9">
         <v>44075</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="11"/>
+      <c r="Q3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="6">
         <v>100086</v>
       </c>
@@ -2213,10 +2273,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="5">
         <v>6.3E-2</v>
@@ -2228,15 +2288,17 @@
         <v>144</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="5">
         <v>4</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="N4" s="8">
         <v>4.91</v>
       </c>
@@ -2246,25 +2308,31 @@
       <c r="P4" s="9">
         <v>44075</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="11"/>
+      <c r="Q4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="27">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" s="6">
         <v>107202</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>21</v>
@@ -2275,14 +2343,18 @@
       <c r="I5" s="5">
         <v>144</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="K5" s="5">
         <v>6</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="N5" s="8">
         <v>4.32</v>
       </c>
@@ -2292,25 +2364,31 @@
       <c r="P5" s="9">
         <v>44075</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="11"/>
+      <c r="Q5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="27">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C6" s="6">
         <v>107202</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>21</v>
@@ -2321,14 +2399,18 @@
       <c r="I6" s="5">
         <v>144</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="K6" s="5">
         <v>5</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="8">
         <v>4.32</v>
       </c>
@@ -2338,8 +2420,12 @@
       <c r="P6" s="9">
         <v>44287</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="11"/>
+      <c r="Q6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
